--- a/public/plantillas_satisfaccion/alumnado-master-satisfaccion-original.xlsx
+++ b/public/plantillas_satisfaccion/alumnado-master-satisfaccion-original.xlsx
@@ -841,6 +841,66 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -859,9 +919,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -930,63 +987,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1382,7 +1382,7 @@
   <dimension ref="A1:M105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1402,26 +1402,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
     </row>
     <row r="2" spans="1:12" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
       <c r="E2" s="4"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -1433,26 +1433,26 @@
     <row r="3" spans="1:12" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
       <c r="B3" s="53"/>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="84"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="103"/>
       <c r="L3" s="54" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="87"/>
+      <c r="B4" s="106"/>
       <c r="C4" s="10"/>
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
@@ -1506,10 +1506,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1525,10 +1525,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -1544,10 +1544,10 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -1563,10 +1563,10 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="81"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="41"/>
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
@@ -1582,8 +1582,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="82"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
@@ -1608,17 +1608,17 @@
     <row r="13" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
       <c r="B13" s="47"/>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="82"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
@@ -1626,61 +1626,61 @@
       <c r="C14" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="68" t="s">
+      <c r="D14" s="84"/>
+      <c r="E14" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="70"/>
-      <c r="H14" s="72" t="s">
+      <c r="G14" s="89"/>
+      <c r="H14" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="73"/>
-      <c r="J14" s="76" t="s">
+      <c r="I14" s="92"/>
+      <c r="J14" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="77"/>
+      <c r="K14" s="96"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="21"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="79"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="98"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="48"/>
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="100"/>
+      <c r="D16" s="71"/>
       <c r="E16" s="50"/>
       <c r="F16" s="51"/>
       <c r="G16" s="52">
         <f>E16*J16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="101"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="49"/>
-      <c r="C17" s="105" t="s">
+      <c r="C17" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="106"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="44">
         <f>SUM(E16:E16)</f>
         <v>0</v>
@@ -1692,25 +1692,25 @@
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6">
-        <f>SUM(I16:I16)</f>
+        <f>SUM(H16:H16)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="103">
+      <c r="J17" s="74">
         <f>SUM(J16:J16)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="104"/>
+      <c r="K17" s="75"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
-      <c r="D18" s="88" t="s">
+      <c r="D18" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="90"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
       <c r="H18" s="64" t="s">
         <v>0</v>
       </c>
@@ -1718,25 +1718,25 @@
         <f>I17</f>
         <v>0</v>
       </c>
-      <c r="J18" s="95" t="e">
+      <c r="J18" s="66" t="e">
         <f>100*((I18))/I19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="96"/>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="94"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="65"/>
       <c r="I19" s="5">
         <f>G17</f>
         <v>0</v>
       </c>
-      <c r="J19" s="97"/>
-      <c r="K19" s="98"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="69"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
@@ -2456,18 +2456,6 @@
     <row r="105" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C13:K13"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="C14:D15"/>
     <mergeCell ref="E14:E15"/>
@@ -2481,6 +2469,18 @@
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C13:K13"/>
   </mergeCells>
   <conditionalFormatting sqref="D4">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
